--- a/exergo-economic new/Plots.xlsx
+++ b/exergo-economic new/Plots.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4C5B26-3823-114D-91E3-BC77A15F69E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E1888-270F-0C42-8537-D66ABAD46315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24860" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24860" windowHeight="21760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T_evap" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sc_cond" sheetId="4" r:id="rId4"/>
     <sheet name="TTD" sheetId="5" r:id="rId5"/>
     <sheet name="Sh_econ" sheetId="6" r:id="rId6"/>
+    <sheet name="Delta_T_pp" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
@@ -24301,7 +24302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -27941,4 +27942,619 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A491C141-D057-4E44-8B1D-7572185CAC9C}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.2657696702213701</v>
+      </c>
+      <c r="C2">
+        <v>3.7762462063204998</v>
+      </c>
+      <c r="D2">
+        <v>2.2438356996350399</v>
+      </c>
+      <c r="E2">
+        <v>3.5941718169217598</v>
+      </c>
+      <c r="F2">
+        <v>2.2869747606857702</v>
+      </c>
+      <c r="G2">
+        <v>59.268149148760997</v>
+      </c>
+      <c r="H2">
+        <v>41.510619331224497</v>
+      </c>
+      <c r="I2">
+        <v>47.317823217356398</v>
+      </c>
+      <c r="J2">
+        <v>45.189137542076899</v>
+      </c>
+      <c r="K2">
+        <v>51.219397160153598</v>
+      </c>
+      <c r="L2">
+        <v>0.20857556044047401</v>
+      </c>
+      <c r="M2">
+        <v>0.257918177192</v>
+      </c>
+      <c r="N2">
+        <v>0.24964875509435899</v>
+      </c>
+      <c r="O2">
+        <v>0.25689820124018098</v>
+      </c>
+      <c r="P2">
+        <v>0.233922169523576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.5</v>
+      </c>
+      <c r="B3">
+        <v>2.2674550471027501</v>
+      </c>
+      <c r="C3">
+        <v>3.8039370031858901</v>
+      </c>
+      <c r="D3">
+        <v>2.24558262058006</v>
+      </c>
+      <c r="E3">
+        <v>3.6165373617239398</v>
+      </c>
+      <c r="F3">
+        <v>2.2887325399867602</v>
+      </c>
+      <c r="G3">
+        <v>59.266963583236503</v>
+      </c>
+      <c r="H3">
+        <v>41.509773952819401</v>
+      </c>
+      <c r="I3">
+        <v>47.316903339068404</v>
+      </c>
+      <c r="J3">
+        <v>45.187868055086703</v>
+      </c>
+      <c r="K3">
+        <v>51.2183384146579</v>
+      </c>
+      <c r="L3">
+        <v>0.208364237926525</v>
+      </c>
+      <c r="M3">
+        <v>0.25750134866473301</v>
+      </c>
+      <c r="N3">
+        <v>0.24939592339432201</v>
+      </c>
+      <c r="O3">
+        <v>0.25651960132588397</v>
+      </c>
+      <c r="P3">
+        <v>0.23368142261996599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2.2691356308425701</v>
+      </c>
+      <c r="C4">
+        <v>3.8320231272565799</v>
+      </c>
+      <c r="D4">
+        <v>2.2473252020702899</v>
+      </c>
+      <c r="E4">
+        <v>3.63916209633827</v>
+      </c>
+      <c r="F4">
+        <v>2.2904852652660099</v>
+      </c>
+      <c r="G4">
+        <v>59.265587840716798</v>
+      </c>
+      <c r="H4">
+        <v>41.5087825054364</v>
+      </c>
+      <c r="I4">
+        <v>47.315835276300398</v>
+      </c>
+      <c r="J4">
+        <v>45.186337629958302</v>
+      </c>
+      <c r="K4">
+        <v>51.217106625046803</v>
+      </c>
+      <c r="L4">
+        <v>0.20818962661498</v>
+      </c>
+      <c r="M4">
+        <v>0.25715873739563899</v>
+      </c>
+      <c r="N4">
+        <v>0.24918700997704901</v>
+      </c>
+      <c r="O4">
+        <v>0.25620853151647799</v>
+      </c>
+      <c r="P4">
+        <v>0.23348256975836601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4.5</v>
+      </c>
+      <c r="B5">
+        <v>2.2708093391050199</v>
+      </c>
+      <c r="C5">
+        <v>3.8605096024037202</v>
+      </c>
+      <c r="D5">
+        <v>2.2490614315831601</v>
+      </c>
+      <c r="E5">
+        <v>3.66204369388088</v>
+      </c>
+      <c r="F5">
+        <v>2.2922306888865398</v>
+      </c>
+      <c r="G5">
+        <v>59.263967734259701</v>
+      </c>
+      <c r="H5">
+        <v>41.507603272731799</v>
+      </c>
+      <c r="I5">
+        <v>47.314576802253598</v>
+      </c>
+      <c r="J5">
+        <v>45.184456252407003</v>
+      </c>
+      <c r="K5">
+        <v>51.215651724896198</v>
+      </c>
+      <c r="L5">
+        <v>0.20804256293238799</v>
+      </c>
+      <c r="M5">
+        <v>0.25687166256721</v>
+      </c>
+      <c r="N5">
+        <v>0.249011051517191</v>
+      </c>
+      <c r="O5">
+        <v>0.25594803741181199</v>
+      </c>
+      <c r="P5">
+        <v>0.23331515685484999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.2724732101507499</v>
+      </c>
+      <c r="C6">
+        <v>3.8893999565925599</v>
+      </c>
+      <c r="D6">
+        <v>2.2507884460311698</v>
+      </c>
+      <c r="E6">
+        <v>3.6851759508298101</v>
+      </c>
+      <c r="F6">
+        <v>2.29396559781024</v>
+      </c>
+      <c r="G6">
+        <v>59.262026313365403</v>
+      </c>
+      <c r="H6">
+        <v>41.506176971178398</v>
+      </c>
+      <c r="I6">
+        <v>47.313067948877197</v>
+      </c>
+      <c r="J6">
+        <v>45.182087114780401</v>
+      </c>
+      <c r="K6">
+        <v>51.213902256560303</v>
+      </c>
+      <c r="L6">
+        <v>0.207916886604226</v>
+      </c>
+      <c r="M6">
+        <v>0.25662758854000101</v>
+      </c>
+      <c r="N6">
+        <v>0.24886067791526501</v>
+      </c>
+      <c r="O6">
+        <v>0.25572674060290301</v>
+      </c>
+      <c r="P6">
+        <v>0.233172156378886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5.5</v>
+      </c>
+      <c r="B7">
+        <v>2.2741228869143102</v>
+      </c>
+      <c r="C7">
+        <v>3.91869518942912</v>
+      </c>
+      <c r="D7">
+        <v>2.2525020326951499</v>
+      </c>
+      <c r="E7">
+        <v>3.7085457940288702</v>
+      </c>
+      <c r="F7">
+        <v>2.2956852364046201</v>
+      </c>
+      <c r="G7">
+        <v>59.259650507583302</v>
+      </c>
+      <c r="H7">
+        <v>41.504416414342998</v>
+      </c>
+      <c r="I7">
+        <v>47.311220595934103</v>
+      </c>
+      <c r="J7">
+        <v>45.179011667066</v>
+      </c>
+      <c r="K7">
+        <v>51.211752580369499</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.20780826985985701</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.25641772356534898</v>
+      </c>
+      <c r="N7">
+        <v>0.248730711508276</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.25553666076132597</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.23304863156424699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2757516895247001</v>
+      </c>
+      <c r="C8">
+        <v>3.9483919055900101</v>
+      </c>
+      <c r="D8">
+        <v>2.2541957319878199</v>
+      </c>
+      <c r="E8">
+        <v>3.7321271296382301</v>
+      </c>
+      <c r="F8">
+        <v>2.2973822588322599</v>
+      </c>
+      <c r="G8">
+        <v>59.256667115687499</v>
+      </c>
+      <c r="H8">
+        <v>41.502187906661902</v>
+      </c>
+      <c r="I8">
+        <v>47.3088997540085</v>
+      </c>
+      <c r="J8">
+        <v>45.174857844076897</v>
+      </c>
+      <c r="K8">
+        <v>51.209039659315501</v>
+      </c>
+      <c r="L8">
+        <v>0.20771356449713199</v>
+      </c>
+      <c r="M8">
+        <v>0.256235682233319</v>
+      </c>
+      <c r="N8">
+        <v>0.248617385875119</v>
+      </c>
+      <c r="O8">
+        <v>0.25537200230205198</v>
+      </c>
+      <c r="P8">
+        <v>0.23294099146445199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6.5</v>
+      </c>
+      <c r="B9">
+        <v>2.27734883452485</v>
+      </c>
+      <c r="C9">
+        <v>3.97847871517618</v>
+      </c>
+      <c r="D9">
+        <v>2.2558591146000602</v>
+      </c>
+      <c r="E9">
+        <v>3.7558668248586802</v>
+      </c>
+      <c r="F9">
+        <v>2.2990446934306799</v>
+      </c>
+      <c r="G9">
+        <v>59.252796704417797</v>
+      </c>
+      <c r="H9">
+        <v>41.499275457633303</v>
+      </c>
+      <c r="I9">
+        <v>47.305887624584898</v>
+      </c>
+      <c r="J9">
+        <v>45.168936560790002</v>
+      </c>
+      <c r="K9">
+        <v>51.205497949229603</v>
+      </c>
+      <c r="L9">
+        <v>0.207630414801657</v>
+      </c>
+      <c r="M9">
+        <v>0.25607669345220402</v>
+      </c>
+      <c r="N9">
+        <v>0.24851788272279601</v>
+      </c>
+      <c r="O9">
+        <v>0.25522843580471699</v>
+      </c>
+      <c r="P9">
+        <v>0.232846549330187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2.2788957190136498</v>
+      </c>
+      <c r="C10">
+        <v>4.00892869384659</v>
+      </c>
+      <c r="D10">
+        <v>2.2574741861394698</v>
+      </c>
+      <c r="E10">
+        <v>3.7796479159881602</v>
+      </c>
+      <c r="F10">
+        <v>2.3006516292371999</v>
+      </c>
+      <c r="G10">
+        <v>59.2475574116622</v>
+      </c>
+      <c r="H10">
+        <v>41.495305944563597</v>
+      </c>
+      <c r="I10">
+        <v>47.301808598464298</v>
+      </c>
+      <c r="J10">
+        <v>45.1598126716313</v>
+      </c>
+      <c r="K10">
+        <v>51.200663811319302</v>
+      </c>
+      <c r="L10">
+        <v>0.20755701651069899</v>
+      </c>
+      <c r="M10">
+        <v>0.25593710781024298</v>
+      </c>
+      <c r="N10">
+        <v>0.24843004350616901</v>
+      </c>
+      <c r="O10">
+        <v>0.25510265099803398</v>
+      </c>
+      <c r="P10">
+        <v>0.23276324761314099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7.5</v>
+      </c>
+      <c r="B11">
+        <v>2.2803572739728102</v>
+      </c>
+      <c r="C11">
+        <v>4.0396817703924199</v>
+      </c>
+      <c r="D11">
+        <v>2.2590070196787302</v>
+      </c>
+      <c r="E11">
+        <v>3.80317087946871</v>
+      </c>
+      <c r="F11">
+        <v>2.3021629691966901</v>
+      </c>
+      <c r="G11">
+        <v>59.240041099891897</v>
+      </c>
+      <c r="H11">
+        <v>41.4895744536203</v>
+      </c>
+      <c r="I11">
+        <v>47.295954705355797</v>
+      </c>
+      <c r="J11">
+        <v>45.143920566505997</v>
+      </c>
+      <c r="K11">
+        <v>51.193648441321102</v>
+      </c>
+      <c r="L11">
+        <v>0.20749196052391</v>
+      </c>
+      <c r="M11">
+        <v>0.25581407849257698</v>
+      </c>
+      <c r="N11">
+        <v>0.24835218244160701</v>
+      </c>
+      <c r="O11">
+        <v>0.25499206719885098</v>
+      </c>
+      <c r="P11">
+        <v>0.23268947965973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2.2816585856310798</v>
+      </c>
+      <c r="C12">
+        <v>4.0705968854852204</v>
+      </c>
+      <c r="D12">
+        <v>2.26038512758331</v>
+      </c>
+      <c r="E12">
+        <v>3.8254144861005801</v>
+      </c>
+      <c r="F12">
+        <v>2.30349089616896</v>
+      </c>
+      <c r="G12">
+        <v>59.2283081261427</v>
+      </c>
+      <c r="H12">
+        <v>41.480570056256198</v>
+      </c>
+      <c r="I12">
+        <v>47.286813575801801</v>
+      </c>
+      <c r="J12">
+        <v>45.109277830316202</v>
+      </c>
+      <c r="K12">
+        <v>51.182505550967797</v>
+      </c>
+      <c r="L12">
+        <v>0.207434128071565</v>
+      </c>
+      <c r="M12">
+        <v>0.25570534747769602</v>
+      </c>
+      <c r="N12">
+        <v>0.248282961085732</v>
+      </c>
+      <c r="O12">
+        <v>0.25489463928092598</v>
+      </c>
+      <c r="P12">
+        <v>0.23262397011403399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>